--- a/Documents/Equipment_EquivalenceClassPartitioning.xlsx
+++ b/Documents/Equipment_EquivalenceClassPartitioning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jon/Programmering/IntelliJProjects/INTE-spelet/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9839AB8-3D79-2443-8442-6C23E186336C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC45E99-6DCA-8344-AE96-17C70A911C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{3F92C8E2-7426-6745-8BDE-A18C257B0CCB}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{3F92C8E2-7426-6745-8BDE-A18C257B0CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -57,64 +57,19 @@
     <t>Description</t>
   </si>
   <si>
-    <t>No condition specified in constructor</t>
-  </si>
-  <si>
-    <t>EC4</t>
-  </si>
-  <si>
-    <t>Equipment constructor</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>0 &lt;= condition &lt;= 100</t>
   </si>
   <si>
-    <t>Creates equipment with full condition (maximum value)</t>
-  </si>
-  <si>
     <t>condition &lt; 100</t>
   </si>
   <si>
     <t>condition &gt; 100</t>
   </si>
   <si>
-    <t>Condition between min and max specified in constructor</t>
-  </si>
-  <si>
-    <t>Condition under min specified in constructor</t>
-  </si>
-  <si>
-    <t>Condition over max specified in constructor</t>
-  </si>
-  <si>
-    <t>Condition = 100</t>
-  </si>
-  <si>
-    <t>Condition = condition entered in constructor</t>
-  </si>
-  <si>
-    <t>IAE</t>
-  </si>
-  <si>
-    <t>Expected result</t>
-  </si>
-  <si>
-    <t>EC2NewSwordWithConditionBetweenMinAndMaxSetsConditionInConstructor</t>
-  </si>
-  <si>
-    <t>EC3NewSwordWithConditionUnderMinimumThrowsIAE</t>
-  </si>
-  <si>
-    <t>EC4NewSwordWithConditionOverMaximumThrowsIAE</t>
-  </si>
-  <si>
-    <t>EC1NewSwordHasFullCondition, EC1NewSwordHasFullConditionHamcrest</t>
-  </si>
-  <si>
-    <t>Name(s)</t>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Equipment</t>
   </si>
 </sst>
 </file>
@@ -489,112 +444,64 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Equipment_EquivalenceClassPartitioning.xlsx
+++ b/Documents/Equipment_EquivalenceClassPartitioning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jon/Programmering/IntelliJProjects/INTE-spelet/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC45E99-6DCA-8344-AE96-17C70A911C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF6FF51-7F31-024F-9E29-D1AEB31E2EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{3F92C8E2-7426-6745-8BDE-A18C257B0CCB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -70,13 +70,25 @@
   </si>
   <si>
     <t>Equipment</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>IAE</t>
+  </si>
+  <si>
+    <t>Not.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,6 +99,22 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -122,11 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,67 +470,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B518AB42-0D05-8D4B-9290-5ECE1276F858}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
